--- a/Przepis.xlsx
+++ b/Przepis.xlsx
@@ -1,41 +1,133 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuba\Desktop\GIT\excelExercisesPython\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB48C3A-B52E-48CC-9FA2-D1B25B852215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11693" windowWidth="10391" xWindow="14504" yWindow="1555"/>
+    <workbookView xWindow="1486" yWindow="1233" windowWidth="9550" windowHeight="11692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pasztet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Pasztet" sheetId="1" r:id="rId1"/>
+    <sheet name="Befsztyk Tatarski" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+  <si>
+    <t>Składniki:</t>
+  </si>
+  <si>
+    <t>Ilość</t>
+  </si>
+  <si>
+    <t>Jednostka</t>
+  </si>
+  <si>
+    <t>Wieprzowina IV</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Indyk II</t>
+  </si>
+  <si>
+    <t>Skóry wieprzowe</t>
+  </si>
+  <si>
+    <t>Cebula smażona</t>
+  </si>
+  <si>
+    <t>Rosół</t>
+  </si>
+  <si>
+    <t>Pasztet Holenderski</t>
+  </si>
+  <si>
+    <t>Cebula suszona</t>
+  </si>
+  <si>
+    <t>Pieprz</t>
+  </si>
+  <si>
+    <t>Jajko suszone</t>
+  </si>
+  <si>
+    <t>Bułka suszona</t>
+  </si>
+  <si>
+    <t>Kasza manna</t>
+  </si>
+  <si>
+    <t>Sól</t>
+  </si>
+  <si>
+    <t>Wołowina</t>
+  </si>
+  <si>
+    <t>Magi</t>
+  </si>
+  <si>
+    <t>Woda/Lód</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>Bombal fresh</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>łyżeczka</t>
+  </si>
+  <si>
+    <t>Olej</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,16 +143,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normalny" xfId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -384,221 +486,292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="21.5"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Składniki:</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Ilość</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Jednostka</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Wieprzowina IV</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>80</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Indyk II</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>60</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Skóry wieprzowe</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>14</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cebula smażona</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
         <v>0.3</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Rosół</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>25</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Pasztet Holenderski</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>3.5</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Cebula suszona</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
         <v>0.3</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Pieprz</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>0.7</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Jajko suszone</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Bułka suszona</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
         <v>6.5</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Kasza manna</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Sól</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
         <v>2.5</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
+      <c r="C13" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393BB0AB-C1FB-4949-9AA2-E7B31285C1A2}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>0.75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>0.64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1.45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>2.7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A175A965-3B10-4A28-B804-B6BA8BA139D5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Przepis.xlsx
+++ b/Przepis.xlsx
@@ -1,133 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuba\Desktop\GIT\excelExercisesPython\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB48C3A-B52E-48CC-9FA2-D1B25B852215}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1486" yWindow="1233" windowWidth="9550" windowHeight="11692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11692" windowWidth="9550" xWindow="1486" yWindow="1233"/>
   </bookViews>
   <sheets>
-    <sheet name="Pasztet" sheetId="1" r:id="rId1"/>
-    <sheet name="Befsztyk Tatarski" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz2" sheetId="3" r:id="rId3"/>
+    <sheet name="Pasztet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Befsztyk Tatarski" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Arkusz2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
-  <si>
-    <t>Składniki:</t>
-  </si>
-  <si>
-    <t>Ilość</t>
-  </si>
-  <si>
-    <t>Jednostka</t>
-  </si>
-  <si>
-    <t>Wieprzowina IV</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>Indyk II</t>
-  </si>
-  <si>
-    <t>Skóry wieprzowe</t>
-  </si>
-  <si>
-    <t>Cebula smażona</t>
-  </si>
-  <si>
-    <t>Rosół</t>
-  </si>
-  <si>
-    <t>Pasztet Holenderski</t>
-  </si>
-  <si>
-    <t>Cebula suszona</t>
-  </si>
-  <si>
-    <t>Pieprz</t>
-  </si>
-  <si>
-    <t>Jajko suszone</t>
-  </si>
-  <si>
-    <t>Bułka suszona</t>
-  </si>
-  <si>
-    <t>Kasza manna</t>
-  </si>
-  <si>
-    <t>Sól</t>
-  </si>
-  <si>
-    <t>Wołowina</t>
-  </si>
-  <si>
-    <t>Magi</t>
-  </si>
-  <si>
-    <t>Woda/Lód</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>Bombal fresh</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>łyżeczka</t>
-  </si>
-  <si>
-    <t>Olej</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -143,26 +61,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normalny" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -486,292 +395,398 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="21.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Składniki:</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Ilość</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Jednostka</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Wieprzowina IV</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>80</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Indyk II</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>60</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Skóry wieprzowe</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cebula smażona</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rosół</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pasztet Holenderski</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cebula suszona</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pieprz</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jajko suszone</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Bułka suszona</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kasza manna</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>3.5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0.3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>0.7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>6.5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sól</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>2.5</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393BB0AB-C1FB-4949-9AA2-E7B31285C1A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="14.69921875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Składniki:</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Ilość</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Jednostka</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Wołowina</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Magi</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>0.75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>łyżeczka</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bombal fresh</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0.64</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pieprz</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>0.36</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sól</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>1.45</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Olej</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>2.7</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Woda/Lód</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A175A965-3B10-4A28-B804-B6BA8BA139D5}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Przepis.xlsx
+++ b/Przepis.xlsx
@@ -1,54 +1,202 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kuba\Desktop\GIT\Gienio2020\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3068915A-69BB-4BF0-887F-2A51E8B1AE06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11692" windowWidth="9550" xWindow="1486" yWindow="1233"/>
+    <workbookView xWindow="19112" yWindow="1832" windowWidth="9550" windowHeight="11692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pasztet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Befsztyk Tatarski" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Arkusz2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Pasztet" sheetId="1" r:id="rId1"/>
+    <sheet name="Befsztyk Tatarski" sheetId="2" r:id="rId2"/>
+    <sheet name="Solanka" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+  <si>
+    <t>Składniki:</t>
+  </si>
+  <si>
+    <t>Ilość</t>
+  </si>
+  <si>
+    <t>Jednostka</t>
+  </si>
+  <si>
+    <t>Wieprzowina IV</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Indyk II</t>
+  </si>
+  <si>
+    <t>Skóry wieprzowe</t>
+  </si>
+  <si>
+    <t>Cebula smażona</t>
+  </si>
+  <si>
+    <t>Rosół</t>
+  </si>
+  <si>
+    <t>Pasztet Holenderski</t>
+  </si>
+  <si>
+    <t>Cebula suszona</t>
+  </si>
+  <si>
+    <t>Pieprz</t>
+  </si>
+  <si>
+    <t>Jajko suszone</t>
+  </si>
+  <si>
+    <t>Bułka suszona</t>
+  </si>
+  <si>
+    <t>Kasza manna</t>
+  </si>
+  <si>
+    <t>Sól</t>
+  </si>
+  <si>
+    <t>Wołowina</t>
+  </si>
+  <si>
+    <t>Magi</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>łyżeczka</t>
+  </si>
+  <si>
+    <t>Bombal fresh</t>
+  </si>
+  <si>
+    <t>Olej</t>
+  </si>
+  <si>
+    <t>Woda/Lód</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>Przepis na</t>
+  </si>
+  <si>
+    <t>mięso</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>gotowego produktu</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="238"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="238"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,17 +209,35 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normalny" xfId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -395,398 +561,457 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="21.5"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Składniki:</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Ilość</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Jednostka</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Wieprzowina IV</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4">
+        <v>100</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8">
         <v>80</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Indyk II</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="C2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8">
         <v>60</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Skóry wieprzowe</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8">
         <v>14</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Cebula smażona</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8">
         <v>0.3</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Rosół</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="C5" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8">
         <v>25</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Pasztet Holenderski</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="C6" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8">
         <v>3.5</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Cebula suszona</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="C7" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8">
         <v>0.3</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Pieprz</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="C8" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8">
         <v>0.7</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Jajko suszone</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="C9" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Bułka suszona</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="C10" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8">
         <v>6.5</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Kasza manna</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="C11" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
         <v>2</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Sól</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="C12" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
         <v>2.5</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
+      <c r="C13" s="11" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="14.69921875"/>
+    <col min="1" max="1" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Składniki:</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Ilość</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Jednostka</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Wołowina</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4">
         <v>100</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Magi</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
         <v>0.75</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>łyżeczka</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Bombal fresh</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
         <v>0.64</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pieprz</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
         <v>0.36</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Sól</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
         <v>1.45</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Olej</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
         <v>2.7</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Woda/Lód</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
         <v>27</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
+      <c r="C9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>